--- a/Jogos_do_Dia/2023-11-15_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-11-15_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,13 +691,13 @@
         <v>2.75</v>
       </c>
       <c r="J2" t="n">
-        <v>3.86</v>
+        <v>3.53</v>
       </c>
       <c r="K2" t="n">
-        <v>3.37</v>
+        <v>3.19</v>
       </c>
       <c r="L2" t="n">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="M2" t="n">
         <v>1.49</v>
@@ -718,7 +718,7 @@
         <v>2.62</v>
       </c>
       <c r="S2" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="T2" t="n">
         <v>1.64</v>
@@ -754,43 +754,43 @@
         <v>2.71</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="3">
@@ -857,10 +857,10 @@
         <v>2.62</v>
       </c>
       <c r="S3" t="n">
-        <v>2.36</v>
+        <v>2.15</v>
       </c>
       <c r="T3" t="n">
-        <v>1.55</v>
+        <v>1.66</v>
       </c>
       <c r="U3" t="n">
         <v>2.1</v>
@@ -893,43 +893,182 @@
         <v>2.73</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>45245</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Danubio</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P4" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-11-15_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-11-15_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>2.75</v>
       </c>
       <c r="J2" t="n">
-        <v>3.53</v>
+        <v>3.9</v>
       </c>
       <c r="K2" t="n">
-        <v>3.19</v>
+        <v>3.3</v>
       </c>
       <c r="L2" t="n">
-        <v>2.12</v>
+        <v>1.92</v>
       </c>
       <c r="M2" t="n">
         <v>1.49</v>
@@ -718,10 +718,10 @@
         <v>2.62</v>
       </c>
       <c r="S2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U2" t="n">
         <v>2.05</v>
@@ -739,10 +739,10 @@
         <v>1.28</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AB2" t="n">
         <v>1.31</v>
@@ -830,13 +830,13 @@
         <v>4.33</v>
       </c>
       <c r="J3" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="K3" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="L3" t="n">
-        <v>3.87</v>
+        <v>3.9</v>
       </c>
       <c r="M3" t="n">
         <v>1.49</v>
@@ -857,10 +857,10 @@
         <v>2.62</v>
       </c>
       <c r="S3" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="U3" t="n">
         <v>2.1</v>
@@ -969,13 +969,13 @@
         <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>1.91</v>
+        <v>1.6</v>
       </c>
       <c r="K4" t="n">
-        <v>3.43</v>
+        <v>3.75</v>
       </c>
       <c r="L4" t="n">
-        <v>3.94</v>
+        <v>5.25</v>
       </c>
       <c r="M4" t="n">
         <v>1.39</v>
@@ -996,10 +996,10 @@
         <v>3.25</v>
       </c>
       <c r="S4" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="T4" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="U4" t="n">
         <v>2</v>
